--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value162.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value162.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.148694030491952</v>
+        <v>2.03850531578064</v>
       </c>
       <c r="B1">
-        <v>1.723014304161447</v>
+        <v>4.704395771026611</v>
       </c>
       <c r="C1">
-        <v>1.888208262821605</v>
+        <v>2.796947240829468</v>
       </c>
       <c r="D1">
-        <v>2.111374006729592</v>
+        <v>2.473300218582153</v>
       </c>
       <c r="E1">
-        <v>2.172214765006731</v>
+        <v>2.365476608276367</v>
       </c>
     </row>
   </sheetData>
